--- a/PaperRead.xlsx
+++ b/PaperRead.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82217B6C-DB24-44E2-9C7C-6DC9DC2E8CF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C42CC7-7E15-4282-ADA3-D7776A3042BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/PaperRead.xlsx
+++ b/PaperRead.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C42CC7-7E15-4282-ADA3-D7776A3042BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B9737F-79AD-4CAC-BFF9-56DE7DECA1F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>1.模型图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过用神经结构代替内积这可以从数据中学习任意函数，据此我们提出一种通用框架，我们称它为NCF（Neural network-based Collaborative Filtering，基于神经网络的协同过滤）。NCF是一种通用的框架，它可以表达和推广矩阵分解。为了提升NFC的非线性建模能力，我们提出了使用多层感知机去学习用户-项目之间交互函数（interaction function）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,6 +90,30 @@
   </si>
   <si>
     <t>RecSys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 针对于Youtube的深度推荐模型进行了解释，其中主要分为两个阶段：Candicate Generation阶段=&gt;Ranking阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 通过用神经结构代替内积这可以从数据中学习任意函数，据此我们提出一种通用框架，我们称它为NCF（Neural network-based Collaborative Filtering，基于神经网络的协同过滤）。
+2. NCF是一种通用的框架，它可以表达和推广矩阵分解。为了提升NFC的非线性建模能力，我们提出了使用多层感知机去学习用户-项目之间交互函数（interaction function）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Gandicate Generation阶段于Ranking阶段都是通过DNN进行处理的，但是处理的数据规模不同：millions-hundreds-dozens</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 针对于Youtube的这种规模比较大的推荐系统考虑到了这几点：数据的规模，数据的更新程度，存在的噪音
+2. 在召回，排序两个阶段分别引入DNN进行处理，但是处理的方式不同。召回阶段数据量较大，仅通过user vector以及content信息进行判断，排序阶段还通过了video信息以及时间的信息进行embedding处理，因为排序阶段是从hundreds中进行筛选处理，所以引入的特征更加多一些
+3. 针对时序问题进行了考虑，即Predicting held-out watch在推荐性能上不如Predicting future watch
+4. 深度学习设置的Relu层数越多，确实能够提升推荐的精准度，但是ReLU到达1024层的时候对于性能的提升就到了一定的瓶颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 典型的工业形推荐系统形式，模型计算相对较少，直接将DNN用作协同过滤过程中的特征处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,9 +169,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -195,10 +231,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,7 +538,7 @@
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" customWidth="1"/>
     <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1"/>
+    <col min="7" max="7" width="73" customWidth="1"/>
     <col min="8" max="8" width="67.33203125" customWidth="1"/>
     <col min="9" max="9" width="70.21875" customWidth="1"/>
   </cols>
@@ -530,53 +572,61 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="205.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="276" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>2017</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="277.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="7">
+        <v>2016</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
